--- a/test/V3/data_pdf.xlsx
+++ b/test/V3/data_pdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\test\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF53A45-BED2-4D0F-8EA0-53995B180CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296AAC24-4EBF-4B79-B055-1512708F7096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Buttons</t>
   </si>
   <si>
-    <t>11328_Spravato</t>
-  </si>
-  <si>
     <t>Slide</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>10,11,12</t>
+  </si>
+  <si>
+    <t>11325_Spravato</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,70 +513,70 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7">
         <v>13</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
         <v>14</v>
